--- a/static/courses/stat.xlsx
+++ b/static/courses/stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>Пользователь</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>2023-11-16 16:49:14.634242+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:21:20.628538+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:21:26.956297+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:23:02.211687+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:23:11.669802+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:23:13.703816+00:00</t>
   </si>
 </sst>
 </file>
@@ -489,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,6 +906,61 @@
         <v>43</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/courses/stat.xlsx
+++ b/static/courses/stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>Пользователь</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>2023-12-06 06:23:13.703816+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:24:03.249808+00:00</t>
+  </si>
+  <si>
+    <t>2023-12-06 06:24:05.986405+00:00</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,6 +967,28 @@
         <v>48</v>
       </c>
     </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
